--- a/biology/Botanique/Tacca_leontopetaloides/Tacca_leontopetaloides.xlsx
+++ b/biology/Botanique/Tacca_leontopetaloides/Tacca_leontopetaloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">arrow-root de Tahiti
 L’arrow-root de Tahiti (Tacca leontopetaloides) est une espèce de plantes à fleurs monocotylédones de la famille des ignames (Dioscoreaceae). C'est une plante herbacée vivace tropicale. Ses tubercules racinaires âcres et amers s'adoucissent par la culture et fournissent par lavage une fécule blanche nourrissante.
-Cet amidon alimentaire était historiquement l'ingrédient de base du po’e. Son usage a progressivement décliné au XIXe siècle en Polynésie, concurrencé par le manioc, introduit à cette époque dans la plupart des îles hautes, bénéficiant d'un meilleur rendement et d'une plus grande facilité d'extraction de sa fécule[6].
+Cet amidon alimentaire était historiquement l'ingrédient de base du po’e. Son usage a progressivement décliné au XIXe siècle en Polynésie, concurrencé par le manioc, introduit à cette époque dans la plupart des îles hautes, bénéficiant d'un meilleur rendement et d'une plus grande facilité d'extraction de sa fécule.
 </t>
         </is>
       </c>
